--- a/assets/sp_cetesb_infoaguas/excel/RYTA00800.xlsx
+++ b/assets/sp_cetesb_infoaguas/excel/RYTA00800.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,18 +864,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.38000000</t>
+          <t>0.04000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -890,18 +890,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.01000000</t>
+          <t>16.30000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -916,18 +916,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.93000000</t>
+          <t>7600.00000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -942,18 +942,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>16.30000000</t>
+          <t>6.93000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -968,17 +968,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>0.22000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -998,7 +994,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1028,13 +1024,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6.73000000</t>
+          <t>0.54000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1054,13 +1050,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.54000000</t>
+          <t>2.01000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1080,18 +1076,18 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.22000000</t>
+          <t>6.38000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1106,18 +1102,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>38.40000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1132,13 +1132,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.04000000</t>
+          <t>6.73000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1158,22 +1158,18 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>38.40000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1184,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1198,7 +1194,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1218,18 +1214,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7600.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1244,18 +1244,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>24000.00000000</t>
+          <t>6.48000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1270,17 +1270,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>0.72000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1300,13 +1296,13 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.12000000</t>
+          <t>0.09000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1356,22 +1352,18 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>24000.00000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1386,13 +1378,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.72000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1412,13 +1408,13 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.26000000</t>
+          <t>2.80000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1438,22 +1434,18 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>41.40000000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1468,18 +1460,18 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5.50000000</t>
+          <t>0.26000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1494,13 +1486,13 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.80000000</t>
+          <t>6.12000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1520,18 +1512,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>16.90000000</t>
+          <t>5.50000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1546,18 +1538,18 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>41.40000000</t>
+          <t>16.90000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1572,18 +1564,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6.48000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1598,13 +1594,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.09000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1624,13 +1624,13 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4.25000000</t>
+          <t>0.13000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1650,18 +1650,18 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>66000.00000000</t>
+          <t>2.30000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1676,18 +1676,18 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6.59000000</t>
+          <t>1.10000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1702,18 +1702,18 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Turbidez</t>
+          <t>Oxigênio Dissolvido</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>8.54000000</t>
+          <t>3.75000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1728,13 +1728,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.75000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1754,18 +1758,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Condutividade</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>68.20000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1780,18 +1788,18 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>21.80000000</t>
+          <t>4.25000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1806,18 +1814,18 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2.30000000</t>
+          <t>21.80000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -1832,18 +1840,18 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0.13000000</t>
+          <t>68.20000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -1858,22 +1866,18 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>6.59000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -1888,7 +1892,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
+          <t>DBO (5, 20)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1898,7 +1902,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -1918,22 +1922,18 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>66000.00000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -1948,18 +1948,18 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.10000000</t>
+          <t>8.54000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>DQO (relativo a carbono)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2004,18 +2004,18 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>46.30000000</t>
+          <t>3.43000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2030,18 +2030,18 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Condutividade</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3.43000000</t>
+          <t>46.30000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2056,17 +2056,13 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>4.95000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2086,18 +2082,18 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>69.00000000</t>
+          <t>6.45000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2112,18 +2108,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>8.75000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2138,17 +2138,13 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sólido Dissolvido Total</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.90000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2168,13 +2164,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4.95000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2194,18 +2194,18 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.90000000</t>
+          <t>22.90000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2220,18 +2220,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>pH</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>6.45000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>U.pH</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2246,13 +2250,13 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.90000000</t>
+          <t>69.00000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2272,7 +2276,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
+          <t>Sólido Dissolvido Total</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2302,13 +2306,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.09000000</t>
+          <t>0.90000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2328,18 +2332,18 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>40000.00000000</t>
+          <t>8.75000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2354,17 +2358,13 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>0.09000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -2384,18 +2384,18 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>22.90000000</t>
+          <t>40000.00000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2410,18 +2410,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Turbidez</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>41.37000000</t>
+          <t>50.00000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>UNT</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2436,18 +2440,18 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Carbono Orgânico Total</t>
+          <t>Temperatura da Água</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>6.05000000</t>
+          <t>23.20000000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>ºC</t>
         </is>
       </c>
     </row>
@@ -2462,22 +2466,18 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DBO (5, 20)</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3.00000000</t>
+          <t>34.60000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>µS/cm</t>
         </is>
       </c>
     </row>
@@ -2492,17 +2492,13 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sólido Total</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>3.77000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2522,22 +2518,18 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sólido Suspenso Total</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>&lt;</t>
-        </is>
-      </c>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>100.00000000</t>
+          <t>5.92000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>U.pH</t>
         </is>
       </c>
     </row>
@@ -2552,13 +2544,13 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Oxigênio Dissolvido</t>
+          <t>Fósforo Total</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3.77000000</t>
+          <t>0.05000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2578,18 +2570,18 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Condutividade</t>
+          <t>Escherichia coli</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>34.60000000</t>
+          <t>23000.00000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>µS/cm</t>
+          <t>UFC/100mL</t>
         </is>
       </c>
     </row>
@@ -2604,13 +2596,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Nitrogênio Kjeldahl</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.61000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -2630,13 +2626,13 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Nitrogênio Amoniacal</t>
+          <t>Nitrogênio Kjeldahl</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0.15000000</t>
+          <t>0.61000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -2656,7 +2652,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>DQO (relativo a carbono)</t>
+          <t>Sólido Total</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2666,7 +2662,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>50.00000000</t>
+          <t>100.00000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2686,13 +2682,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Fósforo Total</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.05000000</t>
+          <t>3.00000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2712,18 +2712,18 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Turbidez</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>23000.00000000</t>
+          <t>41.37000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>UFC/100mL</t>
+          <t>UNT</t>
         </is>
       </c>
     </row>
@@ -2738,18 +2738,18 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Temperatura da Água</t>
+          <t>Nitrogênio Amoniacal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>23.20000000</t>
+          <t>0.15000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ºC</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2764,16 +2764,1540 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Carbono Orgânico Total</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>5.92000000</t>
+          <t>6.05000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>6.55000000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.80000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>9.14000000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1.11000000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5.31000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2.60000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>48.70000000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>13000.00000000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>44294.46527777778</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0.29000000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0.06000000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>16.20000000</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>1.98000000</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>5.19000000</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25000.00000000</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>40.80000000</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0.89000000</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>6.59000000</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>6.33000000</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44363.45138888889</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0.27000000</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>14.30000000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>6.59000000</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2.20000000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.07000000</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>3.95000000</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>43.00000000</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.20000000</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>6.31000000</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>U.pH</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0.86000000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>4400.00000000</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>44413.45138888889</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Condutividade</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>47.40000000</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>µS/cm</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Turbidez</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>10.49000000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>UNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>15000.00000000</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>UFC/100mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>DQO (relativo a carbono)</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>50.00000000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Carbono Orgânico Total</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>4.86000000</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Temperatura da Água</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>18.50000000</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>ºC</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Oxigênio Dissolvido</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>4.63000000</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Sólido Total</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Fósforo Total</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0.08000000</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Nitrogênio Amoniacal</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0.21000000</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Sólido Suspenso Total</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>100.00000000</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Nitrogênio Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0.94000000</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DBO (5, 20)</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>&lt;</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>3.00000000</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>RYTA00800</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>44476.44791666666</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>6.24000000</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
         <is>
           <t>U.pH</t>
         </is>
